--- a/data/trans_orig/P6709-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6709-Edad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>12391</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6286</v>
+        <v>6447</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21912</v>
+        <v>22819</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1512830195478326</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07674970282496918</v>
+        <v>0.07871804610411122</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.26753844318435</v>
+        <v>0.2786098420132669</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -763,19 +763,19 @@
         <v>10164</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5012</v>
+        <v>5337</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16988</v>
+        <v>17980</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1170545328856703</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05772167092533258</v>
+        <v>0.061464900047938</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.195651605042701</v>
+        <v>0.2070758656400862</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -784,19 +784,19 @@
         <v>22554</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14450</v>
+        <v>14229</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>33313</v>
+        <v>34380</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1336693403179886</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0856379303313225</v>
+        <v>0.08432713605999373</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1974320822127504</v>
+        <v>0.2037531749555294</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>10671</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5547</v>
+        <v>5684</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>18876</v>
+        <v>18309</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1302891957451678</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06773017115085952</v>
+        <v>0.06939580400663817</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2304677035647357</v>
+        <v>0.2235385977544073</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -834,19 +834,19 @@
         <v>3895</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>985</v>
+        <v>998</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9239</v>
+        <v>8925</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04485946525936214</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01134560542356674</v>
+        <v>0.01148999017983199</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1064114101486014</v>
+        <v>0.1027889270515786</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>14</v>
@@ -855,19 +855,19 @@
         <v>14566</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>8509</v>
+        <v>8432</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>24251</v>
+        <v>23335</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08632780521333309</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0504317550970346</v>
+        <v>0.04997478711834528</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1437226272666373</v>
+        <v>0.1382943775380664</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>16295</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9644</v>
+        <v>9730</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>24329</v>
+        <v>24790</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1989475883647572</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1177429012333654</v>
+        <v>0.1187943502168536</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2970385665388451</v>
+        <v>0.3026748002842449</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>20</v>
@@ -905,19 +905,19 @@
         <v>19877</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>12634</v>
+        <v>12783</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>28099</v>
+        <v>27616</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.228923381301443</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1455078713657613</v>
+        <v>0.1472187230861299</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3236157674452853</v>
+        <v>0.3180527938286817</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>36</v>
@@ -926,19 +926,19 @@
         <v>36172</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>26799</v>
+        <v>26197</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>47177</v>
+        <v>48324</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2143728686775636</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.158826997413196</v>
+        <v>0.1552562180949129</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2795990031754684</v>
+        <v>0.2863925479038816</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>16819</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10282</v>
+        <v>10305</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24450</v>
+        <v>24444</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2053449394211662</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1255429592122091</v>
+        <v>0.1258141051495016</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.298524761516623</v>
+        <v>0.2984413689625465</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -976,19 +976,19 @@
         <v>18940</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12474</v>
+        <v>11622</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27487</v>
+        <v>27181</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2181381496553642</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1436646611716876</v>
+        <v>0.1338556669261722</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3165680883818445</v>
+        <v>0.3130431042320087</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>36</v>
@@ -997,19 +997,19 @@
         <v>35759</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>26547</v>
+        <v>26040</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>47156</v>
+        <v>46103</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.211928213277507</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1573335358863914</v>
+        <v>0.1543276106497093</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2794713165572604</v>
+        <v>0.2732304189664299</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>25729</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>17963</v>
+        <v>17714</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>36219</v>
+        <v>35463</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3141352569210762</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2193173469828791</v>
+        <v>0.2162828372682266</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4422150523470221</v>
+        <v>0.4329874840074711</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>32</v>
@@ -1047,19 +1047,19 @@
         <v>33952</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>24706</v>
+        <v>24333</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>43096</v>
+        <v>43435</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3910244708981603</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2845364519899761</v>
+        <v>0.2802446980385392</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4963359173821203</v>
+        <v>0.5002452084533362</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>56</v>
@@ -1068,19 +1068,19 @@
         <v>59681</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>47241</v>
+        <v>47792</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>72707</v>
+        <v>72822</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3537017725136078</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2799769871261855</v>
+        <v>0.2832412726570757</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4309028144615182</v>
+        <v>0.4315840595858895</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>33345</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>23365</v>
+        <v>22215</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>46796</v>
+        <v>46387</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08711347251522897</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06104145962065316</v>
+        <v>0.05803635881000063</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1222550193629568</v>
+        <v>0.1211843293401492</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -1193,19 +1193,19 @@
         <v>28954</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19406</v>
+        <v>20716</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>40559</v>
+        <v>42118</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1056666755196918</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07082137385680595</v>
+        <v>0.07560253637461056</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.14801826151174</v>
+        <v>0.1537080154810333</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>56</v>
@@ -1214,19 +1214,19 @@
         <v>62299</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>48312</v>
+        <v>47353</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>80978</v>
+        <v>80365</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09485383172238035</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07355827879691434</v>
+        <v>0.07209726021296345</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1232934894022545</v>
+        <v>0.1223613398327629</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>27022</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>18156</v>
+        <v>17402</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>39088</v>
+        <v>39256</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.07059440456835585</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04743305593070225</v>
+        <v>0.04546244520718421</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1021173177111762</v>
+        <v>0.1025545013532252</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>19</v>
@@ -1264,19 +1264,19 @@
         <v>22857</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>14675</v>
+        <v>14573</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>36494</v>
+        <v>35109</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.08341494597567435</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05355580147060883</v>
+        <v>0.05318396364479849</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1331837503046064</v>
+        <v>0.1281313254259266</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>44</v>
@@ -1285,19 +1285,19 @@
         <v>49879</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>37477</v>
+        <v>36993</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>66037</v>
+        <v>64961</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.07594310881629258</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05706075913719483</v>
+        <v>0.05632357434260487</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1005460240718851</v>
+        <v>0.09890738694187456</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>93118</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>75392</v>
+        <v>75611</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>110807</v>
+        <v>110999</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2432703227120878</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1969598679673321</v>
+        <v>0.1975330485254429</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2894819480932328</v>
+        <v>0.2899828005473856</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>57</v>
@@ -1335,19 +1335,19 @@
         <v>62022</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>49436</v>
+        <v>48542</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>77534</v>
+        <v>78695</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2263480664141934</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1804156314305679</v>
+        <v>0.1771551335627217</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2829579328429412</v>
+        <v>0.2871982575417332</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>147</v>
@@ -1356,19 +1356,19 @@
         <v>155140</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>134768</v>
+        <v>133111</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>178840</v>
+        <v>177345</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2362103912107899</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2051930577292658</v>
+        <v>0.2026694610183073</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2722948420802849</v>
+        <v>0.2700180901323821</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>92474</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>77628</v>
+        <v>75440</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>110928</v>
+        <v>109726</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2415861017749698</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2028009705722215</v>
+        <v>0.1970872189689883</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.289797684917243</v>
+        <v>0.2866581435431939</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>66</v>
@@ -1406,19 +1406,19 @@
         <v>69127</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>55734</v>
+        <v>54955</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>85187</v>
+        <v>84472</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2522772796757818</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2034011616585994</v>
+        <v>0.2005565857468261</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3108904738537661</v>
+        <v>0.3082803435234605</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>160</v>
@@ -1427,19 +1427,19 @@
         <v>161600</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>142502</v>
+        <v>140414</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>182990</v>
+        <v>183477</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2460464398244127</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.216967887375461</v>
+        <v>0.213789267915396</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2786133229063744</v>
+        <v>0.2793553892753349</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>136818</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>118865</v>
+        <v>119350</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>158174</v>
+        <v>157610</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3574356984293575</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3105334332221559</v>
+        <v>0.3118008476334483</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4132263168305503</v>
+        <v>0.4117543523358499</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>86</v>
@@ -1477,19 +1477,19 @@
         <v>91052</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>75672</v>
+        <v>75318</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>108737</v>
+        <v>107603</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3322930324146586</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2761644205404663</v>
+        <v>0.2748705832945674</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.396832908790686</v>
+        <v>0.3926976679527063</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>216</v>
@@ -1498,19 +1498,19 @@
         <v>227870</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>205542</v>
+        <v>204153</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>254116</v>
+        <v>252295</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3469462284261245</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3129502441908018</v>
+        <v>0.310836053184165</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3869073945330224</v>
+        <v>0.3841345792103199</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>28926</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>19703</v>
+        <v>19376</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>43457</v>
+        <v>42744</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06833664315882509</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04654838956815097</v>
+        <v>0.04577582191634565</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1026661860494321</v>
+        <v>0.1009820403664242</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>23</v>
@@ -1623,19 +1623,19 @@
         <v>22793</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>15166</v>
+        <v>15544</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>32461</v>
+        <v>32758</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08002135380206055</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05324277509918108</v>
+        <v>0.0545708022448925</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1139628465767936</v>
+        <v>0.1150035654169798</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>49</v>
@@ -1644,19 +1644,19 @@
         <v>51719</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>37799</v>
+        <v>40040</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>68639</v>
+        <v>66512</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07303680652796703</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05337892298741709</v>
+        <v>0.05654427619295615</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09693111649193063</v>
+        <v>0.09392773591346439</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>31684</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>22444</v>
+        <v>21982</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>44439</v>
+        <v>45133</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07485388018021426</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05302495303752163</v>
+        <v>0.05193363270376296</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1049869911398012</v>
+        <v>0.1066278158703077</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>24</v>
@@ -1694,19 +1694,19 @@
         <v>25431</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>16507</v>
+        <v>16161</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>37347</v>
+        <v>36000</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08928291523004978</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05795161056409739</v>
+        <v>0.05673855274661812</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1311166554756461</v>
+        <v>0.1263862470270372</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>54</v>
@@ -1715,19 +1715,19 @@
         <v>57116</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>43019</v>
+        <v>44552</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>73043</v>
+        <v>74217</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08065794534399851</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06075110309907988</v>
+        <v>0.06291583195166195</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1031510686174498</v>
+        <v>0.1048079545941323</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>88240</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>71246</v>
+        <v>73691</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>105117</v>
+        <v>105924</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2084668997236034</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1683195018453689</v>
+        <v>0.1740941986278243</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2483380754323872</v>
+        <v>0.2502446966522396</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>55</v>
@@ -1765,19 +1765,19 @@
         <v>59203</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>46878</v>
+        <v>44792</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>74442</v>
+        <v>72244</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2078455758204968</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1645742992923171</v>
+        <v>0.1572522658144232</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2613465050736447</v>
+        <v>0.2536307038765615</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>142</v>
@@ -1786,19 +1786,19 @@
         <v>147443</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>126365</v>
+        <v>127623</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>171122</v>
+        <v>171629</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2082169727943948</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1784511687241682</v>
+        <v>0.1802283302953983</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2416569274319001</v>
+        <v>0.2423722019363918</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>117405</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>99369</v>
+        <v>99564</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>137664</v>
+        <v>135527</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2773688938567103</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2347596672302376</v>
+        <v>0.2352201297215856</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3252323646558443</v>
+        <v>0.3201836783828842</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>57</v>
@@ -1836,19 +1836,19 @@
         <v>60081</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>46857</v>
+        <v>46630</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>74719</v>
+        <v>75292</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2109284014780286</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1645024008026867</v>
+        <v>0.1637070074064249</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2623166795737088</v>
+        <v>0.2643285624029211</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>171</v>
@@ -1857,19 +1857,19 @@
         <v>177486</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>154566</v>
+        <v>153797</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>200175</v>
+        <v>201066</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2506432711142404</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2182757837886976</v>
+        <v>0.2171902479440405</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2826843859040504</v>
+        <v>0.2839430683793038</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>157026</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>135559</v>
+        <v>137381</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>177686</v>
+        <v>177429</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.370973683080647</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3202580948665457</v>
+        <v>0.3245626686992499</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4197839935233367</v>
+        <v>0.4191768090930864</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>113</v>
@@ -1907,19 +1907,19 @@
         <v>117332</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>99147</v>
+        <v>101983</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>134116</v>
+        <v>132677</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4119217536693643</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3480776617400361</v>
+        <v>0.3580363069072695</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4708443857534063</v>
+        <v>0.4657922413878797</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>264</v>
@@ -1928,19 +1928,19 @@
         <v>274358</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>246501</v>
+        <v>249050</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>299846</v>
+        <v>300651</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3874450042193993</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3481052101991803</v>
+        <v>0.3517051067850592</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.423439326499779</v>
+        <v>0.4245754595717789</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>17638</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10276</v>
+        <v>10860</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>26636</v>
+        <v>27079</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04810833593758602</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02802892225935757</v>
+        <v>0.02961924927951499</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07264924456460009</v>
+        <v>0.07385764546424138</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>21</v>
@@ -2053,19 +2053,19 @@
         <v>24699</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>15975</v>
+        <v>15320</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>37276</v>
+        <v>36252</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.110665578484561</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07157731794684925</v>
+        <v>0.06864299980294793</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1670187116928958</v>
+        <v>0.1624321165281028</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>38</v>
@@ -2074,19 +2074,19 @@
         <v>42337</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>29994</v>
+        <v>31617</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>57531</v>
+        <v>58521</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07177951219593566</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.050852488571495</v>
+        <v>0.05360467176025186</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09753990212805243</v>
+        <v>0.09921694403387867</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>23340</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>14878</v>
+        <v>15784</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>33424</v>
+        <v>35073</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.06366032209196645</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.04058066066757653</v>
+        <v>0.04305157102359446</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.09116229926406332</v>
+        <v>0.09566205490887308</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>12</v>
@@ -2124,19 +2124,19 @@
         <v>13935</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>7267</v>
+        <v>7556</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>23878</v>
+        <v>24115</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.06243885465523892</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03255973572993877</v>
+        <v>0.03385485875171404</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1069894568968094</v>
+        <v>0.1080505061978963</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>33</v>
@@ -2145,19 +2145,19 @@
         <v>37276</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>25785</v>
+        <v>25494</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>51003</v>
+        <v>51480</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.06319812827057318</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04371637678949882</v>
+        <v>0.04322291045088084</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.08647074222082357</v>
+        <v>0.08728092029459279</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>67284</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>51854</v>
+        <v>52821</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>84548</v>
+        <v>83940</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1835154277595324</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1414313538808831</v>
+        <v>0.1440669931506201</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2306017425781315</v>
+        <v>0.2289443011350236</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>33</v>
@@ -2195,19 +2195,19 @@
         <v>41555</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>29120</v>
+        <v>29868</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>54530</v>
+        <v>56713</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1861904604729115</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1304743363596083</v>
+        <v>0.1338255965375081</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2443280045640613</v>
+        <v>0.2541053638641959</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>92</v>
@@ -2216,19 +2216,19 @@
         <v>108839</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>89035</v>
+        <v>88994</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>130027</v>
+        <v>131126</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1845276394280327</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1509514817067394</v>
+        <v>0.1508823985375133</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2204509930017044</v>
+        <v>0.2223130958655817</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>95894</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>78573</v>
+        <v>78495</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>112780</v>
+        <v>114297</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2615491426484617</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2143057968994354</v>
+        <v>0.2140930681623023</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3076062486929687</v>
+        <v>0.3117434915246984</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>41</v>
@@ -2266,19 +2266,19 @@
         <v>44982</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>33211</v>
+        <v>33056</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>58210</v>
+        <v>59211</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2015465206156935</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1488069084346553</v>
+        <v>0.1481083895932309</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2608165214870807</v>
+        <v>0.2652984765066532</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>125</v>
@@ -2287,19 +2287,19 @@
         <v>140876</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>120732</v>
+        <v>119206</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>166658</v>
+        <v>163258</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.238844615014683</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2046922460692115</v>
+        <v>0.2021044631583931</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2825549414648217</v>
+        <v>0.2767905044065758</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>162482</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>141815</v>
+        <v>142391</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>183712</v>
+        <v>184107</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4431667715624534</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3867986490536127</v>
+        <v>0.3883674078702715</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5010706630701213</v>
+        <v>0.5021481623276729</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>84</v>
@@ -2337,19 +2337,19 @@
         <v>98014</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>83978</v>
+        <v>82157</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>114926</v>
+        <v>114919</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4391585857715951</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.376269471951089</v>
+        <v>0.3681137999153061</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5149372651694606</v>
+        <v>0.5149068429844633</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>228</v>
@@ -2358,19 +2358,19 @@
         <v>260496</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>234220</v>
+        <v>235871</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>288034</v>
+        <v>284717</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4416501050907755</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3971023459763373</v>
+        <v>0.3999012741542217</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.48833924477439</v>
+        <v>0.4827147378793499</v>
       </c>
     </row>
     <row r="27">
@@ -2462,19 +2462,19 @@
         <v>5303</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2028</v>
+        <v>2016</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>11303</v>
+        <v>11234</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03391801155494302</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01297525222792413</v>
+        <v>0.01289743344310199</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07229843327508363</v>
+        <v>0.07185595312479484</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>4</v>
@@ -2483,19 +2483,19 @@
         <v>4437</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1074</v>
+        <v>979</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>9382</v>
+        <v>9623</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.06463329131889331</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01564203793653396</v>
+        <v>0.01426080328641631</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1366659607315893</v>
+        <v>0.1401789311640816</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>9</v>
@@ -2504,19 +2504,19 @@
         <v>9740</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4417</v>
+        <v>5065</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>17189</v>
+        <v>17697</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0432899748953653</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01963151824608934</v>
+        <v>0.02251383281613694</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.07640038671307503</v>
+        <v>0.07865923495679909</v>
       </c>
     </row>
     <row r="29">
@@ -2533,19 +2533,19 @@
         <v>6449</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2166</v>
+        <v>2278</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>12667</v>
+        <v>13304</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04125047563104908</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01385316240244206</v>
+        <v>0.01457171778228889</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.08102613752396266</v>
+        <v>0.08509656622158719</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>7466</v>
+        <v>7182</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03100450493640397</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1087535612358423</v>
+        <v>0.1046256665562681</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8</v>
@@ -2575,19 +2575,19 @@
         <v>8577</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4232</v>
+        <v>4112</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>15992</v>
+        <v>16063</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03812418596430293</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01881041775428887</v>
+        <v>0.01827532990623679</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07108119190810205</v>
+        <v>0.07139753914920159</v>
       </c>
     </row>
     <row r="30">
@@ -2604,19 +2604,19 @@
         <v>30272</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>21127</v>
+        <v>20228</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>41547</v>
+        <v>40325</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1936331892981143</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1351356447394741</v>
+        <v>0.1293880612257179</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.265753699075875</v>
+        <v>0.2579383293504254</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>12</v>
@@ -2625,19 +2625,19 @@
         <v>13579</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>7360</v>
+        <v>7694</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>21911</v>
+        <v>22346</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1978005986686726</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1072103425376856</v>
+        <v>0.1120741750625099</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3191783703258554</v>
+        <v>0.3255206306760539</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>40</v>
@@ -2646,19 +2646,19 @@
         <v>43850</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>31972</v>
+        <v>31963</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>57815</v>
+        <v>55411</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1949047651439331</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1421061904871748</v>
+        <v>0.1420677462714217</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2569731632320153</v>
+        <v>0.2462882837159555</v>
       </c>
     </row>
     <row r="31">
@@ -2675,19 +2675,19 @@
         <v>33691</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>23923</v>
+        <v>24167</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>45507</v>
+        <v>46067</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.215502234784178</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1530222383364161</v>
+        <v>0.1545834098408835</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2910853642732766</v>
+        <v>0.2946636871957449</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>15</v>
@@ -2696,19 +2696,19 @@
         <v>15788</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>9507</v>
+        <v>9460</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>23819</v>
+        <v>23286</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2299884560825161</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1384873704470502</v>
+        <v>0.1378016118859714</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3469773231085345</v>
+        <v>0.3392084107920799</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>45</v>
@@ -2717,19 +2717,19 @@
         <v>49479</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>38344</v>
+        <v>37371</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>63506</v>
+        <v>63416</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2199223258916864</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1704309725389357</v>
+        <v>0.1661068990684362</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2822703186073934</v>
+        <v>0.2818673907021886</v>
       </c>
     </row>
     <row r="32">
@@ -2746,19 +2746,19 @@
         <v>80622</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>67715</v>
+        <v>67970</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>93734</v>
+        <v>93878</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5156960887317156</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4331344697139303</v>
+        <v>0.4347668577051477</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5995690774464927</v>
+        <v>0.600489481255274</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>29</v>
@@ -2767,19 +2767,19 @@
         <v>32716</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>24739</v>
+        <v>24352</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>42244</v>
+        <v>41219</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.476573148993514</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3603793034575575</v>
+        <v>0.3547405369246482</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6153708192726454</v>
+        <v>0.600434673659042</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>106</v>
@@ -2788,19 +2788,19 @@
         <v>113338</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>97717</v>
+        <v>97118</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>128100</v>
+        <v>128852</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5037587481047123</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4343293854193697</v>
+        <v>0.4316659159327516</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5693726102013508</v>
+        <v>0.5727162639534497</v>
       </c>
     </row>
     <row r="33">
@@ -2892,19 +2892,19 @@
         <v>97602</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>79159</v>
+        <v>78069</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>118892</v>
+        <v>121450</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.06917551775173501</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0561036718765112</v>
+        <v>0.05533122847651262</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.0842642257905767</v>
+        <v>0.08607765889398324</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>85</v>
@@ -2913,19 +2913,19 @@
         <v>91047</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>74807</v>
+        <v>75348</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>111646</v>
+        <v>112462</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.09711506613025163</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0797932107809379</v>
+        <v>0.08037035407623977</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1190879168433986</v>
+        <v>0.1199578275032983</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>172</v>
@@ -2934,19 +2934,19 @@
         <v>188649</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>166354</v>
+        <v>163809</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>220157</v>
+        <v>218186</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.08032912259344151</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.07083569750895219</v>
+        <v>0.0697518082493831</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.09374564279069238</v>
+        <v>0.0929063831753089</v>
       </c>
     </row>
     <row r="35">
@@ -2963,19 +2963,19 @@
         <v>99167</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>81063</v>
+        <v>79352</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>121341</v>
+        <v>119809</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.0702842266069142</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.05745301085602771</v>
+        <v>0.05624087130972977</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.08600002957834998</v>
+        <v>0.0849143102156393</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>61</v>
@@ -2984,19 +2984,19 @@
         <v>68247</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>54010</v>
+        <v>52017</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>88246</v>
+        <v>85538</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.07279570057253092</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.05760980716384189</v>
+        <v>0.05548357300067637</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.09412778776578273</v>
+        <v>0.0912398443259604</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>153</v>
@@ -3005,19 +3005,19 @@
         <v>167413</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>141046</v>
+        <v>141337</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>194613</v>
+        <v>197075</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.07128681934045536</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.06005920636695736</v>
+        <v>0.06018301111485837</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.08286867849163605</v>
+        <v>0.08391691947186557</v>
       </c>
     </row>
     <row r="36">
@@ -3034,19 +3034,19 @@
         <v>295209</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>266044</v>
+        <v>262375</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>328350</v>
+        <v>326027</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.209228841909186</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1885587373122231</v>
+        <v>0.1859577376081825</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2327179043119487</v>
+        <v>0.2310716042632271</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>177</v>
@@ -3055,19 +3055,19 @@
         <v>196235</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>170986</v>
+        <v>170877</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>222420</v>
+        <v>225505</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2093147349638375</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1823823993150804</v>
+        <v>0.1822669762962784</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2372446876588153</v>
+        <v>0.2405357418768606</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>457</v>
@@ -3076,19 +3076,19 @@
         <v>491444</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>448665</v>
+        <v>451706</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>530664</v>
+        <v>534540</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2092631308381712</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1910475539283355</v>
+        <v>0.1923422309935452</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2259635499582369</v>
+        <v>0.2276141677438585</v>
       </c>
     </row>
     <row r="37">
@@ -3105,19 +3105,19 @@
         <v>356282</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>325403</v>
+        <v>325154</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>393927</v>
+        <v>392313</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2525144692161989</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2306290551374445</v>
+        <v>0.2304525111875575</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2791954424623125</v>
+        <v>0.2780511046509065</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>198</v>
@@ -3126,19 +3126,19 @@
         <v>208918</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>185359</v>
+        <v>185246</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>235624</v>
+        <v>237519</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2228435255668512</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1977139595461107</v>
+        <v>0.1975936084823051</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2513292966919356</v>
+        <v>0.2533504931916201</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>537</v>
@@ -3147,19 +3147,19 @@
         <v>565200</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>524972</v>
+        <v>521424</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>613504</v>
+        <v>608172</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2406696828845833</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2235400721634405</v>
+        <v>0.222029104685677</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2612380574133698</v>
+        <v>0.258967307113166</v>
       </c>
     </row>
     <row r="38">
@@ -3176,19 +3176,19 @@
         <v>562677</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>522823</v>
+        <v>527060</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>601066</v>
+        <v>602154</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.398796944515966</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3705499123378457</v>
+        <v>0.3735534481658002</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.426004967175653</v>
+        <v>0.4267761434333499</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>344</v>
@@ -3197,19 +3197,19 @@
         <v>373065</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>341243</v>
+        <v>343822</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>404742</v>
+        <v>403127</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.3979309727665287</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.3639878851496584</v>
+        <v>0.3667383552326129</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.4317191839324682</v>
+        <v>0.4299969843769368</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>870</v>
@@ -3218,19 +3218,19 @@
         <v>935742</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>888595</v>
+        <v>888394</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>985590</v>
+        <v>984407</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3984512443433486</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.3783754193276769</v>
+        <v>0.3782895566944692</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4196770029050899</v>
+        <v>0.4191732024818551</v>
       </c>
     </row>
     <row r="39">
@@ -3563,19 +3563,19 @@
         <v>13758</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7522</v>
+        <v>7561</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20746</v>
+        <v>21703</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1739127233269103</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09508975573926882</v>
+        <v>0.09557358866738423</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2622437489378198</v>
+        <v>0.274348006203098</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -3584,19 +3584,19 @@
         <v>6095</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2733</v>
+        <v>2555</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12381</v>
+        <v>11705</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06635805631333053</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02975311357463358</v>
+        <v>0.02781521575364269</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.134784375446222</v>
+        <v>0.1274254073353142</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -3605,19 +3605,19 @@
         <v>19853</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12583</v>
+        <v>12483</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>29821</v>
+        <v>29432</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1161262085558514</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07360257254535992</v>
+        <v>0.07301526507804622</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1744299804571481</v>
+        <v>0.1721542486097958</v>
       </c>
     </row>
     <row r="5">
@@ -3634,19 +3634,19 @@
         <v>9475</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5026</v>
+        <v>4889</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17145</v>
+        <v>16558</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.119774179287205</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06353269430218625</v>
+        <v>0.06180255359652835</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2167268675081078</v>
+        <v>0.2093121202859607</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>11</v>
@@ -3655,19 +3655,19 @@
         <v>12233</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6941</v>
+        <v>6443</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>20135</v>
+        <v>20349</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.133178998919825</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07556533918237333</v>
+        <v>0.07014842886394811</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2192081542573382</v>
+        <v>0.2215315264540996</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>20</v>
@@ -3676,19 +3676,19 @@
         <v>21708</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>14414</v>
+        <v>14419</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>32755</v>
+        <v>32482</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1269762638569613</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08431187895404153</v>
+        <v>0.08433727420941951</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1915903812510172</v>
+        <v>0.1899960323026924</v>
       </c>
     </row>
     <row r="6">
@@ -3705,19 +3705,19 @@
         <v>28441</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>20814</v>
+        <v>19611</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>37666</v>
+        <v>36888</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3595194500291913</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2631004979533406</v>
+        <v>0.2478991839551919</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4761287963424924</v>
+        <v>0.4662994977554644</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>33</v>
@@ -3726,19 +3726,19 @@
         <v>31928</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>23900</v>
+        <v>23853</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>40812</v>
+        <v>40307</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3475890992540825</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2601875133211737</v>
+        <v>0.2596825014982845</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4443137303806282</v>
+        <v>0.4388075875074439</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>59</v>
@@ -3747,19 +3747,19 @@
         <v>60369</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>49335</v>
+        <v>48650</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>74183</v>
+        <v>73240</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3531095618259886</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2885715087661787</v>
+        <v>0.2845618857151962</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4339088574758286</v>
+        <v>0.4283926478523552</v>
       </c>
     </row>
     <row r="7">
@@ -3776,19 +3776,19 @@
         <v>14790</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8592</v>
+        <v>8518</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22979</v>
+        <v>22670</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1869527762870042</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1086104899795376</v>
+        <v>0.1076729740629298</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2904715017497537</v>
+        <v>0.2865717592768804</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -3797,19 +3797,19 @@
         <v>15409</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9550</v>
+        <v>9848</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23544</v>
+        <v>23092</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1677487544624306</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.103962895413856</v>
+        <v>0.1072177762921899</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2563160903961306</v>
+        <v>0.2513924683304606</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>30</v>
@@ -3818,19 +3818,19 @@
         <v>30198</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>20286</v>
+        <v>21111</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>41279</v>
+        <v>40839</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1766349209893875</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1186585216420133</v>
+        <v>0.1234820684157108</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2414497389157824</v>
+        <v>0.2388758429772779</v>
       </c>
     </row>
     <row r="8">
@@ -3847,19 +3847,19 @@
         <v>12645</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7025</v>
+        <v>7451</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>20734</v>
+        <v>20393</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1598408710696892</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08880587993024283</v>
+        <v>0.09419154608713214</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2620968811332279</v>
+        <v>0.2577822446212054</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>27</v>
@@ -3868,19 +3868,19 @@
         <v>26190</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>18469</v>
+        <v>17955</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>34750</v>
+        <v>34443</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2851250910503314</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.201067506985539</v>
+        <v>0.1954659459679333</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3783084317994672</v>
+        <v>0.3749744836400936</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>39</v>
@@ -3889,19 +3889,19 @@
         <v>38835</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>28147</v>
+        <v>27578</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>49674</v>
+        <v>50098</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2271530447718113</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1646345854579639</v>
+        <v>0.161311325435204</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2905529439484162</v>
+        <v>0.2930349529948519</v>
       </c>
     </row>
     <row r="9">
@@ -3993,19 +3993,19 @@
         <v>42554</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>30485</v>
+        <v>31293</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>57426</v>
+        <v>57035</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1236365237467417</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08857299589400257</v>
+        <v>0.09091779615774617</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1668450290072265</v>
+        <v>0.1657094272001587</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -4014,19 +4014,19 @@
         <v>26466</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17885</v>
+        <v>18175</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>37793</v>
+        <v>36707</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09669261961371517</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0653409591988031</v>
+        <v>0.06640268271489252</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1380738779334895</v>
+        <v>0.1341074915487269</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>65</v>
@@ -4035,19 +4035,19 @@
         <v>69020</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>54205</v>
+        <v>54022</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>84255</v>
+        <v>87201</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1117009902017671</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08772499836785587</v>
+        <v>0.08742853237118027</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1363571024305177</v>
+        <v>0.1411245385203722</v>
       </c>
     </row>
     <row r="11">
@@ -4064,19 +4064,19 @@
         <v>55771</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>43942</v>
+        <v>42066</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>70069</v>
+        <v>69944</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.162039015278339</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1276709013479444</v>
+        <v>0.1222194223733857</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.203580882029042</v>
+        <v>0.2032152584486066</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>39</v>
@@ -4085,19 +4085,19 @@
         <v>37676</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>27759</v>
+        <v>27356</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>51243</v>
+        <v>50644</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1376457745696574</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1014170869154027</v>
+        <v>0.09994146203714646</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1872106914265183</v>
+        <v>0.1850236962051674</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>92</v>
@@ -4106,19 +4106,19 @@
         <v>93447</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>77284</v>
+        <v>74972</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>111892</v>
+        <v>110764</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1512333673176102</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1250746267972213</v>
+        <v>0.1213333339340174</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1810843447085511</v>
+        <v>0.1792581259498228</v>
       </c>
     </row>
     <row r="12">
@@ -4135,19 +4135,19 @@
         <v>92485</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>77803</v>
+        <v>76803</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>108767</v>
+        <v>109425</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2687070473228664</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2260485974349739</v>
+        <v>0.2231441696956966</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3160134045994236</v>
+        <v>0.3179264036808084</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>85</v>
@@ -4156,19 +4156,19 @@
         <v>80580</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>66601</v>
+        <v>65852</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>95475</v>
+        <v>95416</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2943935061835474</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2433217369903618</v>
+        <v>0.2405850832378911</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3488098277134498</v>
+        <v>0.3485931526876375</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>175</v>
@@ -4177,19 +4177,19 @@
         <v>173065</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>152398</v>
+        <v>153602</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>196525</v>
+        <v>196110</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2800855613596454</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2466372034343142</v>
+        <v>0.2485857351078924</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3180527132143296</v>
+        <v>0.3173802161331869</v>
       </c>
     </row>
     <row r="13">
@@ -4206,19 +4206,19 @@
         <v>73859</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>58907</v>
+        <v>61641</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>89777</v>
+        <v>90485</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2145898235994951</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1711479748881818</v>
+        <v>0.179092581965574</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2608396029192528</v>
+        <v>0.2628970414908711</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>75</v>
@@ -4227,19 +4227,19 @@
         <v>71753</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>58594</v>
+        <v>57560</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>85718</v>
+        <v>86417</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2621453714120755</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2140668576066752</v>
+        <v>0.2102914343309293</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3131631602555504</v>
+        <v>0.315717902695607</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>148</v>
@@ -4248,19 +4248,19 @@
         <v>145612</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>128085</v>
+        <v>126307</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>167592</v>
+        <v>165824</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.235655844075383</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2072903971050943</v>
+        <v>0.2044127281237968</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2712267572819484</v>
+        <v>0.2683666571343643</v>
       </c>
     </row>
     <row r="14">
@@ -4277,19 +4277,19 @@
         <v>79516</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>64959</v>
+        <v>66653</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>96547</v>
+        <v>97337</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2310275900525578</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1887339145981368</v>
+        <v>0.1936542386613398</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.280509431733573</v>
+        <v>0.2828032998531473</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>57</v>
@@ -4298,19 +4298,19 @@
         <v>57240</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>45147</v>
+        <v>45281</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>72834</v>
+        <v>72791</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2091227282210045</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1649423157558108</v>
+        <v>0.1654288670099198</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2660942846142906</v>
+        <v>0.2659346269389196</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>132</v>
@@ -4319,19 +4319,19 @@
         <v>136757</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>116803</v>
+        <v>115939</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>158565</v>
+        <v>156973</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2213242370455943</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1890310419352249</v>
+        <v>0.1876338680099892</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2566187005549259</v>
+        <v>0.2540417660769497</v>
       </c>
     </row>
     <row r="15">
@@ -4423,19 +4423,19 @@
         <v>45163</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>33499</v>
+        <v>32836</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>59423</v>
+        <v>58868</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09826899549310505</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07288976488523413</v>
+        <v>0.07144670693343548</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1292960761821945</v>
+        <v>0.1280895129674323</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>41</v>
@@ -4444,19 +4444,19 @@
         <v>41135</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>30767</v>
+        <v>30199</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>54326</v>
+        <v>53577</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1295949724717242</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0969286783103001</v>
+        <v>0.09514114936257798</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1711511391236931</v>
+        <v>0.1687920908788413</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>84</v>
@@ -4465,19 +4465,19 @@
         <v>86298</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>70345</v>
+        <v>70574</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>106293</v>
+        <v>104373</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1110660033893928</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09053367183154187</v>
+        <v>0.09082932407286361</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1367988311298278</v>
+        <v>0.1343277318522863</v>
       </c>
     </row>
     <row r="17">
@@ -4494,19 +4494,19 @@
         <v>56800</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>43271</v>
+        <v>44018</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>71772</v>
+        <v>71659</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1235885498391097</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09415147474514036</v>
+        <v>0.09577642662080857</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1561660318897961</v>
+        <v>0.1559210314645667</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>49</v>
@@ -4515,19 +4515,19 @@
         <v>47451</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>36564</v>
+        <v>36617</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>60573</v>
+        <v>60858</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1494911441259593</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1151928243201156</v>
+        <v>0.11536093421772</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1908332299418956</v>
+        <v>0.1917304958436478</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>104</v>
@@ -4536,19 +4536,19 @@
         <v>104250</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>86756</v>
+        <v>87624</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>125736</v>
+        <v>125342</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1341700459517255</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1116553229435094</v>
+        <v>0.1127716026950946</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1618215560705693</v>
+        <v>0.161314554185387</v>
       </c>
     </row>
     <row r="18">
@@ -4565,19 +4565,19 @@
         <v>122828</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>102823</v>
+        <v>105150</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>141873</v>
+        <v>145198</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2672569403169521</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2237295148231477</v>
+        <v>0.2287912379871094</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3086964725677075</v>
+        <v>0.3159297883293665</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>71</v>
@@ -4586,19 +4586,19 @@
         <v>67399</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>54171</v>
+        <v>53282</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>82625</v>
+        <v>81603</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2123386183998413</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1706646585932143</v>
+        <v>0.1678632677439869</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2603082680508806</v>
+        <v>0.2570877323896636</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>186</v>
@@ -4607,19 +4607,19 @@
         <v>190227</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>164144</v>
+        <v>166560</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>213915</v>
+        <v>215092</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.244822198706058</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2112533540748583</v>
+        <v>0.214363173682964</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.275308210726657</v>
+        <v>0.2768231258999716</v>
       </c>
     </row>
     <row r="19">
@@ -4636,19 +4636,19 @@
         <v>111123</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>94407</v>
+        <v>93883</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>131291</v>
+        <v>130682</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2417879861075508</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2054174346801788</v>
+        <v>0.2042762438554674</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2856719467963287</v>
+        <v>0.2843464983457217</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>73</v>
@@ -4657,19 +4657,19 @@
         <v>73887</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>60465</v>
+        <v>57789</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>89795</v>
+        <v>89284</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2327768309582739</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1904929038357386</v>
+        <v>0.1820618038208104</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2828951375913159</v>
+        <v>0.2812851106100617</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>181</v>
@@ -4678,19 +4678,19 @@
         <v>185009</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>163475</v>
+        <v>162465</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>209856</v>
+        <v>210840</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2381068296130965</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2103920621584203</v>
+        <v>0.2090925349845118</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2700845518192346</v>
+        <v>0.2713511321592531</v>
       </c>
     </row>
     <row r="20">
@@ -4707,19 +4707,19 @@
         <v>123674</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>104901</v>
+        <v>106173</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>144027</v>
+        <v>143986</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2690975282432823</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2282508632875749</v>
+        <v>0.2310168732114351</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3133837019625311</v>
+        <v>0.3132933234039933</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>85</v>
@@ -4728,19 +4728,19 @@
         <v>87542</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>71810</v>
+        <v>72608</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>104207</v>
+        <v>104137</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2757984340442014</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2262339109446197</v>
+        <v>0.228749300742107</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3283000628560193</v>
+        <v>0.3280780268095337</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>201</v>
@@ -4749,19 +4749,19 @@
         <v>211216</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>187873</v>
+        <v>188367</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>236750</v>
+        <v>236807</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2718349223397272</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2417928470583606</v>
+        <v>0.2424276173068472</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3046971302094583</v>
+        <v>0.3047711421881136</v>
       </c>
     </row>
     <row r="21">
@@ -4853,19 +4853,19 @@
         <v>36061</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>24635</v>
+        <v>25665</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>49218</v>
+        <v>51001</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09806489862053262</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06699373485274322</v>
+        <v>0.06979444623517302</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1338424266491844</v>
+        <v>0.138692849852067</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>23</v>
@@ -4874,19 +4874,19 @@
         <v>24937</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>15880</v>
+        <v>16488</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>36581</v>
+        <v>37719</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1025704480924127</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06531761003562107</v>
+        <v>0.0678171304980891</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1504674999690904</v>
+        <v>0.1551455649401969</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>54</v>
@@ -4895,19 +4895,19 @@
         <v>60998</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>46036</v>
+        <v>46204</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>76900</v>
+        <v>78176</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09985811649475329</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07536500385135253</v>
+        <v>0.07563918486422992</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1258908791294871</v>
+        <v>0.1279799395042858</v>
       </c>
     </row>
     <row r="23">
@@ -4924,19 +4924,19 @@
         <v>46968</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>35776</v>
+        <v>33888</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>62377</v>
+        <v>61019</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1277250244111369</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.09728844522977308</v>
+        <v>0.09215426872984248</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1696270831204935</v>
+        <v>0.165935706727286</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>30</v>
@@ -4945,19 +4945,19 @@
         <v>33211</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>23220</v>
+        <v>23532</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>46781</v>
+        <v>45802</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1366054303394795</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.09550977684729481</v>
+        <v>0.09679400820599234</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1924205688479895</v>
+        <v>0.1883947196736326</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>73</v>
@@ -4966,19 +4966,19 @@
         <v>80179</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>62784</v>
+        <v>64732</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>98035</v>
+        <v>99510</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1312594440730287</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1027817197972213</v>
+        <v>0.1059711094010741</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.160490857630471</v>
+        <v>0.1629057467438607</v>
       </c>
     </row>
     <row r="24">
@@ -4995,19 +4995,19 @@
         <v>91151</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>74870</v>
+        <v>74663</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>108066</v>
+        <v>110184</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2478748811186322</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2036015385000964</v>
+        <v>0.2030381815782759</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2938737988674228</v>
+        <v>0.2996336943016339</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>58</v>
@@ -5016,19 +5016,19 @@
         <v>62416</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>49262</v>
+        <v>50000</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>77862</v>
+        <v>79174</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2567312438058875</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2026247254355157</v>
+        <v>0.2056624963517908</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3202646355219447</v>
+        <v>0.3256599016187468</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>141</v>
@@ -5037,19 +5037,19 @@
         <v>153567</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>131764</v>
+        <v>133932</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>176192</v>
+        <v>178317</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2513997315215599</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2157069159109219</v>
+        <v>0.2192563407193451</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2884399782134959</v>
+        <v>0.2919188398781935</v>
       </c>
     </row>
     <row r="25">
@@ -5066,19 +5066,19 @@
         <v>88244</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>72886</v>
+        <v>71642</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>106364</v>
+        <v>105449</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2399696614364852</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1982051966021451</v>
+        <v>0.1948236706870428</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2892465366396137</v>
+        <v>0.2867585102954803</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>48</v>
@@ -5087,19 +5087,19 @@
         <v>51685</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>38520</v>
+        <v>39070</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>65565</v>
+        <v>65878</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2125939955735353</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1584411445318341</v>
+        <v>0.1607027699759585</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2696823612115702</v>
+        <v>0.2709715116102759</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>128</v>
@@ -5108,19 +5108,19 @@
         <v>139929</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>120636</v>
+        <v>116683</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>163549</v>
+        <v>160588</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2290740906186488</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1974902503075571</v>
+        <v>0.1910194851123672</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2677410760072811</v>
+        <v>0.262894427331708</v>
       </c>
     </row>
     <row r="26">
@@ -5137,19 +5137,19 @@
         <v>105305</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>88449</v>
+        <v>87328</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>124360</v>
+        <v>123394</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2863655344132131</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2405292712952415</v>
+        <v>0.2374806083228811</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3381854456942985</v>
+        <v>0.3355575533047842</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>64</v>
@@ -5158,19 +5158,19 @@
         <v>70869</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>55942</v>
+        <v>57570</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>84903</v>
+        <v>86350</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.291498882188685</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2301036327625787</v>
+        <v>0.2367972506670901</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3492248996175578</v>
+        <v>0.355175505370657</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>158</v>
@@ -5179,19 +5179,19 @@
         <v>176173</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>155182</v>
+        <v>153831</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>201116</v>
+        <v>198498</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2884086172920092</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2540451175284479</v>
+        <v>0.2518330441707814</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3292421787806808</v>
+        <v>0.3249564768756926</v>
       </c>
     </row>
     <row r="27">
@@ -5283,19 +5283,19 @@
         <v>16604</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>9792</v>
+        <v>9965</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>25951</v>
+        <v>26312</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1001897766498016</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05908420826569415</v>
+        <v>0.06012823049435032</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1565923771342242</v>
+        <v>0.1587702201758079</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>9</v>
@@ -5304,19 +5304,19 @@
         <v>10338</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>5126</v>
+        <v>4438</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>19179</v>
+        <v>18347</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.09764301281183332</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0484130437493198</v>
+        <v>0.04191595290167616</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1811373512880707</v>
+        <v>0.1732822768847394</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>23</v>
@@ -5325,19 +5325,19 @@
         <v>26942</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>17864</v>
+        <v>17785</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>39137</v>
+        <v>38734</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.09919698139557591</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.06577236928706542</v>
+        <v>0.06548001441949579</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1440955568811749</v>
+        <v>0.142609717094327</v>
       </c>
     </row>
     <row r="29">
@@ -5354,19 +5354,19 @@
         <v>18425</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>11153</v>
+        <v>10897</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>29082</v>
+        <v>27330</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1111771970996607</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06729730358118367</v>
+        <v>0.06575102676060095</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1754849436127641</v>
+        <v>0.1649104105614089</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>17</v>
@@ -5375,19 +5375,19 @@
         <v>19832</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>12441</v>
+        <v>11880</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>30700</v>
+        <v>28870</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.187312794372666</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1174978367455628</v>
+        <v>0.1122007771367871</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2899546535738038</v>
+        <v>0.2726677817322891</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>33</v>
@@ -5396,19 +5396,19 @@
         <v>38257</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>27751</v>
+        <v>26910</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>52478</v>
+        <v>52510</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1408568472200973</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1021740909222282</v>
+        <v>0.09907789196115149</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.193215186509978</v>
+        <v>0.1933318786004465</v>
       </c>
     </row>
     <row r="30">
@@ -5425,19 +5425,19 @@
         <v>41289</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>31281</v>
+        <v>30792</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>54407</v>
+        <v>54388</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2491422722455776</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1887507288611409</v>
+        <v>0.1858022094762807</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3282937539513432</v>
+        <v>0.3281773802135495</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>18</v>
@@ -5446,19 +5446,19 @@
         <v>21184</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>13154</v>
+        <v>12732</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>31422</v>
+        <v>30118</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.200079695874293</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1242370826978717</v>
+        <v>0.1202517488927184</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2967721701836653</v>
+        <v>0.2844603548659653</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>53</v>
@@ -5467,19 +5467,19 @@
         <v>62474</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>48281</v>
+        <v>48710</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>78392</v>
+        <v>77754</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2300163948260381</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1777610561122524</v>
+        <v>0.1793403464915617</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2886257533970939</v>
+        <v>0.2862769417319218</v>
       </c>
     </row>
     <row r="31">
@@ -5496,19 +5496,19 @@
         <v>30267</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>19909</v>
+        <v>21105</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>40710</v>
+        <v>42769</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1826306091762483</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1201330600621052</v>
+        <v>0.1273509123970364</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2456473493052692</v>
+        <v>0.2580706150555761</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>20</v>
@@ -5517,19 +5517,19 @@
         <v>23348</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>15197</v>
+        <v>14822</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>33064</v>
+        <v>33415</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.220518712678595</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1435320396522883</v>
+        <v>0.1399931392566788</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3122770656398882</v>
+        <v>0.3155950099462511</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>47</v>
@@ -5538,19 +5538,19 @@
         <v>53615</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>41343</v>
+        <v>41029</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>68728</v>
+        <v>68853</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1974003843662204</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1522162546062499</v>
+        <v>0.1510595172501108</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2530428355489449</v>
+        <v>0.2535046268267618</v>
       </c>
     </row>
     <row r="32">
@@ -5567,19 +5567,19 @@
         <v>59141</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>47566</v>
+        <v>46535</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>72417</v>
+        <v>72953</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3568601448287118</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2870161812481848</v>
+        <v>0.2807977676291754</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.436968181364725</v>
+        <v>0.4402040152302604</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>26</v>
@@ -5588,19 +5588,19 @@
         <v>31176</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>21930</v>
+        <v>21304</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>42554</v>
+        <v>42209</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2944457842626126</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2071245424505573</v>
+        <v>0.2012082670776078</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4019141080246484</v>
+        <v>0.3986491506235</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>80</v>
@@ -5609,19 +5609,19 @@
         <v>90317</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>73884</v>
+        <v>75429</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>107996</v>
+        <v>108899</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3325293921920683</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2720282193296169</v>
+        <v>0.2777176270225666</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3976216572197291</v>
+        <v>0.4009443890941917</v>
       </c>
     </row>
     <row r="33">
@@ -5713,19 +5713,19 @@
         <v>154141</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>132606</v>
+        <v>131418</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>183585</v>
+        <v>180371</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1088304120120938</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.09362584326243198</v>
+        <v>0.09278723232134116</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1296197244721854</v>
+        <v>0.1273503316790859</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>106</v>
@@ -5734,19 +5734,19 @@
         <v>108972</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>89790</v>
+        <v>90212</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>128937</v>
+        <v>129717</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.105594824457821</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.08700777897429646</v>
+        <v>0.08741579178983659</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1249409537926773</v>
+        <v>0.1256969947758013</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>245</v>
@@ -5755,19 +5755,19 @@
         <v>263112</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>235740</v>
+        <v>232864</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>295930</v>
+        <v>297038</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1074665914645564</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.09628633301966165</v>
+        <v>0.09511179173618828</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1208706326132028</v>
+        <v>0.1213233584876763</v>
       </c>
     </row>
     <row r="35">
@@ -5784,19 +5784,19 @@
         <v>187440</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>162473</v>
+        <v>164045</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>213958</v>
+        <v>215845</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1323410908997001</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1147135438133904</v>
+        <v>0.1158235043445558</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1510644810031217</v>
+        <v>0.1523968626323303</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>146</v>
@@ -5805,19 +5805,19 @@
         <v>150403</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>129074</v>
+        <v>128681</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>173960</v>
+        <v>172781</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1457421805258227</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.12507391893179</v>
+        <v>0.1246932841351073</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1685684116660814</v>
+        <v>0.1674261290072379</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>322</v>
@@ -5826,19 +5826,19 @@
         <v>337843</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>300569</v>
+        <v>303739</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>370628</v>
+        <v>374329</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1379897346421204</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1227656164785353</v>
+        <v>0.1240602442049303</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1513808479443981</v>
+        <v>0.1528923212920039</v>
       </c>
     </row>
     <row r="36">
@@ -5855,19 +5855,19 @@
         <v>376194</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>343175</v>
+        <v>339247</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>411465</v>
+        <v>409605</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2656108068256843</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2422975032315735</v>
+        <v>0.2395241136735314</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2905136391910464</v>
+        <v>0.2892002725979134</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>265</v>
@@ -5876,19 +5876,19 @@
         <v>263508</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>234422</v>
+        <v>236336</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>290649</v>
+        <v>292541</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2553411920075158</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2271569085661746</v>
+        <v>0.2290117217858581</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2816419972798185</v>
+        <v>0.2834752159685342</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>614</v>
@@ -5897,19 +5897,19 @@
         <v>639702</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>598629</v>
+        <v>596178</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>684391</v>
+        <v>683755</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2612820994520214</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2445063804197105</v>
+        <v>0.2435050891576236</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2795350612920292</v>
+        <v>0.2792753170905971</v>
       </c>
     </row>
     <row r="37">
@@ -5926,19 +5926,19 @@
         <v>318282</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>287948</v>
+        <v>285815</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>353637</v>
+        <v>350662</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2247215924602891</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2033044854961984</v>
+        <v>0.2017985199363606</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2496840959207292</v>
+        <v>0.2475834521178328</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>232</v>
@@ -5947,19 +5947,19 @@
         <v>236082</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>209510</v>
+        <v>209961</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>263645</v>
+        <v>265944</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2287659228403153</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2030172520335007</v>
+        <v>0.2034543893111097</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2554745477136336</v>
+        <v>0.2577025713233896</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>534</v>
@@ -5968,19 +5968,19 @@
         <v>554364</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>511123</v>
+        <v>514655</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>595071</v>
+        <v>592632</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2264263032062633</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2087650312007683</v>
+        <v>0.2102076579237979</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2430529379020522</v>
+        <v>0.2420565929417454</v>
       </c>
     </row>
     <row r="38">
@@ -5997,19 +5997,19 @@
         <v>380281</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>347524</v>
+        <v>346493</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>414552</v>
+        <v>415568</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2684960978022327</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2453679884584729</v>
+        <v>0.2446405123344159</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2926933086811782</v>
+        <v>0.2934106206439059</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>259</v>
@@ -6018,19 +6018,19 @@
         <v>273017</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>242142</v>
+        <v>244427</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>301515</v>
+        <v>301595</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2645558801685252</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2346375391886334</v>
+        <v>0.2368518353438034</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2921706797034234</v>
+        <v>0.2922483788985625</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>610</v>
@@ -6039,19 +6039,19 @@
         <v>653298</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>607641</v>
+        <v>610796</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>699598</v>
+        <v>699787</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2668352712350384</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2481870635463318</v>
+        <v>0.2494758763650544</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2857463287046392</v>
+        <v>0.2858237651223718</v>
       </c>
     </row>
     <row r="39">
